--- a/biology/Médecine/Adrien_Gagnon/Adrien_Gagnon.xlsx
+++ b/biology/Médecine/Adrien_Gagnon/Adrien_Gagnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Gagnon — Kamouraska, 4 mars 1924 – Brossard, 12 mai 2011 (à 87 ans)[1] — est un ancien culturiste et homme d'affaires autodidacte qui se présente comme le pionnier de la santé naturelle au Québec[Information douteuse].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Gagnon — Kamouraska, 4 mars 1924 – Brossard, 12 mai 2011 (à 87 ans) — est un ancien culturiste et homme d'affaires autodidacte qui se présente comme le pionnier de la santé naturelle au Québec[Information douteuse].
 Il a d'abord commercialisé des haltères et publiés des revues de culturisme. Après quelques faillites, affirme son fils Yvan dans une biographie de style hagiographique publiée chez Québecor, il a connu le succès commercial avec des produits pour régimes tels NutriDiet et NutriBar.
-Il a fondé l'entreprise Santé Naturelle (AG) Ltée qui distribue les produits de la marque « Adrien Gagnon ». Il a dirigé son entreprise jusqu'en 2005[1].
+Il a fondé l'entreprise Santé Naturelle (AG) Ltée qui distribue les produits de la marque « Adrien Gagnon ». Il a dirigé son entreprise jusqu'en 2005.
 </t>
         </is>
       </c>
